--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1212.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1212.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6973863792705983</v>
+        <v>1.173589587211609</v>
       </c>
       <c r="B1">
-        <v>1.588467031020544</v>
+        <v>2.189854621887207</v>
       </c>
       <c r="C1">
-        <v>4.214773762624866</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.906855106453655</v>
+        <v>2.372869968414307</v>
       </c>
       <c r="E1">
-        <v>1.539974967756</v>
+        <v>1.227529525756836</v>
       </c>
     </row>
   </sheetData>
